--- a/www/IndicatorsPerCountry/Russia_CopperProduction_TerritorialRef_1991_2012_CCode_643.xlsx
+++ b/www/IndicatorsPerCountry/Russia_CopperProduction_TerritorialRef_1991_2012_CCode_643.xlsx
@@ -483,13 +483,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Russia_CopperProduction_TerritorialRef_1991_2012_CCode_643.xlsx
+++ b/www/IndicatorsPerCountry/Russia_CopperProduction_TerritorialRef_1991_2012_CCode_643.xlsx
@@ -237,166 +237,166 @@
     <t>2</t>
   </si>
   <si>
-    <t>1.27201394943</t>
-  </si>
-  <si>
-    <t>1.84442022668</t>
-  </si>
-  <si>
-    <t>2.22602441151</t>
-  </si>
-  <si>
-    <t>4.19764603313</t>
-  </si>
-  <si>
-    <t>7.6320836966</t>
-  </si>
-  <si>
-    <t>8.39529206626</t>
-  </si>
-  <si>
-    <t>11.5753269398</t>
-  </si>
-  <si>
-    <t>15.9001743679</t>
-  </si>
-  <si>
-    <t>19.0802092415</t>
-  </si>
-  <si>
-    <t>18.4442022668</t>
-  </si>
-  <si>
-    <t>25.4402789887</t>
-  </si>
-  <si>
-    <t>34.9803836094</t>
-  </si>
-  <si>
-    <t>46.4285091543</t>
-  </si>
-  <si>
-    <t>57.2406277245</t>
-  </si>
-  <si>
-    <t>63.6006974717</t>
-  </si>
-  <si>
-    <t>69.9607672188</t>
-  </si>
-  <si>
-    <t>80.1368788143</t>
-  </si>
-  <si>
-    <t>90.3129904098</t>
-  </si>
-  <si>
-    <t>83.9529206626</t>
-  </si>
-  <si>
-    <t>77.5928509154</t>
-  </si>
-  <si>
-    <t>110.029206626</t>
-  </si>
-  <si>
-    <t>124.339363557</t>
-  </si>
-  <si>
-    <t>138.649520488</t>
-  </si>
-  <si>
-    <t>161.545771578</t>
-  </si>
-  <si>
-    <t>187.622057541</t>
-  </si>
-  <si>
-    <t>197.162162162</t>
-  </si>
-  <si>
-    <t>241.682650392</t>
-  </si>
-  <si>
-    <t>254.402789887</t>
-  </si>
-  <si>
-    <t>267.122929381</t>
-  </si>
-  <si>
-    <t>260.762859634</t>
-  </si>
-  <si>
-    <t>270.302964255</t>
-  </si>
-  <si>
-    <t>276.663034002</t>
-  </si>
-  <si>
-    <t>318.003487358</t>
-  </si>
-  <si>
-    <t>349.803836094</t>
-  </si>
-  <si>
-    <t>413.404533566</t>
-  </si>
-  <si>
-    <t>445.204882302</t>
-  </si>
-  <si>
-    <t>477.005231037</t>
-  </si>
-  <si>
-    <t>508.805579773</t>
-  </si>
-  <si>
-    <t>524.705754141</t>
-  </si>
-  <si>
-    <t>540.605928509</t>
-  </si>
-  <si>
-    <t>556.506102877</t>
-  </si>
-  <si>
-    <t>588.306451613</t>
-  </si>
-  <si>
-    <t>629.646904969</t>
-  </si>
-  <si>
-    <t>655.087183958</t>
-  </si>
-  <si>
-    <t>699.607672188</t>
-  </si>
-  <si>
-    <t>763.20836966</t>
-  </si>
-  <si>
-    <t>718.68788143</t>
-  </si>
-  <si>
-    <t>550.14603313</t>
-  </si>
-  <si>
-    <t>562.866172624</t>
-  </si>
-  <si>
-    <t>572.406277245</t>
-  </si>
-  <si>
-    <t>604.206625981</t>
-  </si>
-  <si>
-    <t>642.367044464</t>
-  </si>
-  <si>
-    <t>648.727114211</t>
-  </si>
-  <si>
-    <t>534.245858762</t>
+    <t>1.2720139494333</t>
+  </si>
+  <si>
+    <t>1.84442022667829</t>
+  </si>
+  <si>
+    <t>2.22602441150828</t>
+  </si>
+  <si>
+    <t>4.1976460331299</t>
+  </si>
+  <si>
+    <t>7.63208369659983</t>
+  </si>
+  <si>
+    <t>8.39529206625981</t>
+  </si>
+  <si>
+    <t>11.5753269398431</t>
+  </si>
+  <si>
+    <t>15.9001743679163</t>
+  </si>
+  <si>
+    <t>19.0802092414996</t>
+  </si>
+  <si>
+    <t>18.4442022667829</t>
+  </si>
+  <si>
+    <t>25.4402789886661</t>
+  </si>
+  <si>
+    <t>34.9803836094159</t>
+  </si>
+  <si>
+    <t>46.4285091543156</t>
+  </si>
+  <si>
+    <t>57.2406277244987</t>
+  </si>
+  <si>
+    <t>63.6006974716652</t>
+  </si>
+  <si>
+    <t>69.9607672188317</t>
+  </si>
+  <si>
+    <t>80.1368788142982</t>
+  </si>
+  <si>
+    <t>90.3129904097646</t>
+  </si>
+  <si>
+    <t>83.9529206625981</t>
+  </si>
+  <si>
+    <t>77.5928509154316</t>
+  </si>
+  <si>
+    <t>110.029206625981</t>
+  </si>
+  <si>
+    <t>124.339363557105</t>
+  </si>
+  <si>
+    <t>138.64952048823</t>
+  </si>
+  <si>
+    <t>161.54577157803</t>
+  </si>
+  <si>
+    <t>187.622057541412</t>
+  </si>
+  <si>
+    <t>197.162162162162</t>
+  </si>
+  <si>
+    <t>241.682650392328</t>
+  </si>
+  <si>
+    <t>254.402789886661</t>
+  </si>
+  <si>
+    <t>267.122929380994</t>
+  </si>
+  <si>
+    <t>260.762859633827</t>
+  </si>
+  <si>
+    <t>270.302964254577</t>
+  </si>
+  <si>
+    <t>276.663034001744</t>
+  </si>
+  <si>
+    <t>318.003487358326</t>
+  </si>
+  <si>
+    <t>349.803836094159</t>
+  </si>
+  <si>
+    <t>413.404533565824</t>
+  </si>
+  <si>
+    <t>445.204882301656</t>
+  </si>
+  <si>
+    <t>477.005231037489</t>
+  </si>
+  <si>
+    <t>508.805579773322</t>
+  </si>
+  <si>
+    <t>524.705754141238</t>
+  </si>
+  <si>
+    <t>540.605928509154</t>
+  </si>
+  <si>
+    <t>556.506102877071</t>
+  </si>
+  <si>
+    <t>588.306451612903</t>
+  </si>
+  <si>
+    <t>629.646904969486</t>
+  </si>
+  <si>
+    <t>655.087183958152</t>
+  </si>
+  <si>
+    <t>699.607672188317</t>
+  </si>
+  <si>
+    <t>763.208369659983</t>
+  </si>
+  <si>
+    <t>718.687881429817</t>
+  </si>
+  <si>
+    <t>550.146033129904</t>
+  </si>
+  <si>
+    <t>562.866172624237</t>
+  </si>
+  <si>
+    <t>572.406277244987</t>
+  </si>
+  <si>
+    <t>604.206625980819</t>
+  </si>
+  <si>
+    <t>642.367044463819</t>
+  </si>
+  <si>
+    <t>648.727114210985</t>
+  </si>
+  <si>
+    <t>534.245858761988</t>
   </si>
   <si>
     <t>583.6</t>
